--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/MICHIGAN_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/MICHIGAN_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1005"/>
+  <dimension ref="A1:D999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -496,7 +496,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C10">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C26">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C29">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C45">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C46">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C49">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C53">
@@ -1413,7 +1413,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C79">
@@ -1491,7 +1491,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C85">
@@ -1787,7 +1787,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C107">
@@ -1813,7 +1813,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2031,7 +2031,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C125">
@@ -2187,7 +2187,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C137">
@@ -2226,7 +2226,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C140">
@@ -2278,7 +2278,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C144">
@@ -2382,12 +2382,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C152">
@@ -2413,7 +2413,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C154">
@@ -2452,7 +2452,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C157">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C160">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C165">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C169">
@@ -2725,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C178">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C181">
@@ -2777,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C182">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C194">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C198">
@@ -2998,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C199">
@@ -3107,7 +3107,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C207">
@@ -3120,7 +3120,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C208">
@@ -3133,7 +3133,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C209">
@@ -3224,7 +3224,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C216">
@@ -3367,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C227">
@@ -3393,7 +3393,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C229">
@@ -3419,7 +3419,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C231">
@@ -3432,7 +3432,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C232">
@@ -3458,7 +3458,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C234">
@@ -3510,7 +3510,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C238">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C244">
@@ -3632,7 +3632,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C247">
@@ -3645,7 +3645,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C248">
@@ -3710,7 +3710,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C253">
@@ -3723,7 +3723,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C254">
@@ -3762,7 +3762,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C257">
@@ -3775,7 +3775,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C258">
@@ -3788,7 +3788,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C259">
@@ -3801,7 +3801,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C260">
@@ -3853,7 +3853,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C264">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C265">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C268">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C274">
@@ -3996,7 +3996,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C275">
@@ -4009,7 +4009,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C276">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C278">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C280">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C291">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C293">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C295">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C298">
@@ -4456,7 +4456,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C310">
@@ -4469,7 +4469,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C311">
@@ -4521,7 +4521,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C315">
@@ -4586,7 +4586,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C320">
@@ -4625,7 +4625,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C323">
@@ -4690,7 +4690,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C328">
@@ -4703,7 +4703,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C329">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C335">
@@ -4846,7 +4846,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C340">
@@ -4859,7 +4859,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C341">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C342">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C348">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C350">
@@ -5033,7 +5033,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C354">
@@ -5072,7 +5072,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C357">
@@ -5215,7 +5215,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C368">
@@ -5254,7 +5254,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C371">
@@ -5306,7 +5306,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C375">
@@ -5345,7 +5345,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C378">
@@ -5397,7 +5397,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C382">
@@ -5410,7 +5410,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C383">
@@ -5449,7 +5449,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C386">
@@ -5462,7 +5462,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C387">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C389">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C390">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C393">
@@ -5553,7 +5553,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C394">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C395">
@@ -5657,7 +5657,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C402">
@@ -5670,7 +5670,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C403">
@@ -5683,7 +5683,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C404">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C406">
@@ -5748,7 +5748,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C409">
@@ -6280,7 +6280,7 @@
         <v>56</v>
       </c>
       <c r="D449">
-        <v>0.009557945041816009</v>
+        <v>0.009557945041816007</v>
       </c>
     </row>
     <row r="450">
@@ -6546,7 +6546,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C470">
@@ -6837,7 +6837,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C492">
@@ -6915,7 +6915,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C498">
@@ -6941,7 +6941,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C500">
@@ -7006,7 +7006,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C505">
@@ -7019,7 +7019,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C506">
@@ -7097,7 +7097,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C512">
@@ -7167,7 +7167,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C517">
@@ -7497,7 +7497,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C542">
@@ -7567,7 +7567,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C547">
@@ -7593,7 +7593,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C549">
@@ -7619,7 +7619,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C551">
@@ -7632,7 +7632,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Guelatao de Juárez</t>
+          <t>Guelatao De Juárez</t>
         </is>
       </c>
       <c r="C552">
@@ -7645,7 +7645,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C553">
@@ -7658,7 +7658,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C554">
@@ -7671,7 +7671,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C555">
@@ -7684,7 +7684,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C556">
@@ -7723,7 +7723,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C559">
@@ -7749,7 +7749,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C561">
@@ -7762,7 +7762,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C562">
@@ -7775,7 +7775,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C563">
@@ -7788,7 +7788,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C564">
@@ -7801,7 +7801,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C565">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C604">
@@ -8646,7 +8646,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C630">
@@ -8711,7 +8711,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C635">
@@ -8724,7 +8724,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C636">
@@ -8750,7 +8750,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C638">
@@ -8763,7 +8763,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C639">
@@ -8776,7 +8776,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C640">
@@ -8789,7 +8789,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C641">
@@ -9028,7 +9028,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C659">
@@ -9041,7 +9041,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C660">
@@ -9158,7 +9158,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C669">
@@ -9197,7 +9197,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C672">
@@ -9210,7 +9210,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C673">
@@ -9288,7 +9288,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C679">
@@ -9457,7 +9457,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C692">
@@ -9561,7 +9561,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C700">
@@ -9600,7 +9600,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C703">
@@ -9665,7 +9665,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C708">
@@ -9769,7 +9769,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C716">
@@ -9917,7 +9917,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C727">
@@ -9943,7 +9943,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C729">
@@ -9995,7 +9995,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C733">
@@ -10008,7 +10008,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C734">
@@ -10047,7 +10047,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C737">
@@ -10073,7 +10073,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C739">
@@ -10213,7 +10213,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C749">
@@ -10252,7 +10252,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C752">
@@ -10278,7 +10278,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C754">
@@ -10382,7 +10382,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C762">
@@ -10486,7 +10486,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C770">
@@ -10512,7 +10512,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C772">
@@ -10629,7 +10629,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C781">
@@ -10642,7 +10642,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C782">
@@ -10655,7 +10655,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C783">
@@ -10668,7 +10668,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C784">
@@ -11403,7 +11403,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C839">
@@ -11577,7 +11577,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C852">
@@ -11590,7 +11590,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C853">
@@ -11790,7 +11790,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C868">
@@ -11829,7 +11829,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C871">
@@ -11894,7 +11894,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C876">
@@ -11907,7 +11907,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C877">
@@ -11998,7 +11998,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C884">
@@ -12076,7 +12076,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C890">
@@ -12089,7 +12089,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C891">
@@ -12141,7 +12141,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C895">
@@ -12154,7 +12154,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C896">
@@ -12167,7 +12167,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C897">
@@ -12245,7 +12245,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C903">
@@ -12284,7 +12284,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C906">
@@ -12310,7 +12310,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C908">
@@ -12427,7 +12427,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C917">
@@ -12466,7 +12466,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C920">
@@ -12479,7 +12479,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C921">
@@ -12505,7 +12505,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C923">
@@ -12583,7 +12583,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C929">
@@ -12895,7 +12895,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C953">
@@ -13113,7 +13113,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C969">
@@ -13269,7 +13269,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C981">
@@ -13282,7 +13282,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C982">
@@ -13295,7 +13295,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C983">
@@ -13399,7 +13399,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C991">
@@ -13425,7 +13425,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C993">
@@ -13511,41 +13511,6 @@
       </c>
       <c r="D999">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="A1001" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="A1002" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="A1003" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1004">
-      <c r="A1004" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1005">
-      <c r="A1005" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
